--- a/Workbook.xlsx
+++ b/Workbook.xlsx
@@ -14,11 +14,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>Address</t>
   </si>
   <si>
+    <t>Rua Ouro Preto, 1188 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
+  </si>
+  <si>
+    <t>Rua Ouro Preto, 1177 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
+  </si>
+  <si>
+    <t>Rua Ouro Preto, 1181 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
+  </si>
+  <si>
+    <t>Rua Ouro Preto, 1187 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
+  </si>
+  <si>
+    <t>Rua Ouro Preto, 1187 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil</t>
+  </si>
+  <si>
+    <t>rua ouro preto 1187</t>
+  </si>
+  <si>
+    <t>Rua Ouro Preto, 1177 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil</t>
+  </si>
+  <si>
+    <t>Rua Ouro Preto, 1111 - Jardim Nacional, Foz do Iguaçu - State of Paraná, Brazil, 85862-150</t>
+  </si>
+  <si>
+    <t>Rua do Ouro, 12 - Serra, Belo Horizonte - State of Minas Gerais, Brazil, 30110-021</t>
+  </si>
+  <si>
+    <t>Rua do Ouro, 12 - Serra, Belo Horizonte - State of Minas Gerais, Brazil</t>
+  </si>
+  <si>
+    <t>Rua do Ouro - Serra, Belo Horizonte - State of Minas Gerais, Brazil</t>
+  </si>
+  <si>
+    <t>Rua do Ouro - Balneario Samas, Mongaguá - State of São Paulo, 11730-000, Brazil, 11730-000</t>
+  </si>
+  <si>
+    <t>Avenida Paulista, 12 - Bela Vista, São Paulo - State of São Paulo, Brazil, 01310-000</t>
+  </si>
+  <si>
+    <t>avenida paulista 12, 30170-041</t>
+  </si>
+  <si>
     <t>Rua Doadora Eliane Stancioli - Buritis, Belo Horizonte - State of Minas Gerais, Brazil, 30575-790</t>
   </si>
   <si>
@@ -31,12 +73,6 @@
     <t>Rua Ouro Preto, 1189 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
   </si>
   <si>
-    <t>Rua Ouro Preto, 1187 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
-  </si>
-  <si>
-    <t>Rua Ouro Preto, 1188 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
-  </si>
-  <si>
     <t>Rua Ouro Preto, 1186 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil</t>
   </si>
   <si>
@@ -55,9 +91,6 @@
     <t>Rua Ouro Preto, 1182 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
   </si>
   <si>
-    <t>Rua Ouro Preto, 1181 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
-  </si>
-  <si>
     <t>Rua Ouro Preto, 1180 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
   </si>
   <si>
@@ -79,9 +112,6 @@
     <t>rua ouro preto 1176</t>
   </si>
   <si>
-    <t>Avenida Paulista, 12 - Bela Vista, São Paulo - State of São Paulo, Brazil, 01310-000</t>
-  </si>
-  <si>
     <t>Avenida Ipanema, 12 - Gabriela, Feira de Santana - State of Bahia, Brazil, 44028-354</t>
   </si>
   <si>
@@ -91,9 +121,6 @@
     <t>Rua Ouro Preto - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
   </si>
   <si>
-    <t>Rua do Ouro - Serra, Belo Horizonte - State of Minas Gerais, Brazil</t>
-  </si>
-  <si>
     <t>Rua dos Padres - Andrade Araujo, Belford Roxo - State of Rio de Janeiro, Brazil, 26140-580</t>
   </si>
   <si>
@@ -109,21 +136,42 @@
     <t>Rua Ouro Preto, 13 - Vila Nova, Novo Hamburgo - RS, Brazil, 93525-170</t>
   </si>
   <si>
-    <t>Rua Ouro Preto, 1177 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Query</t>
   </si>
   <si>
+    <t>cafe forte</t>
+  </si>
+  <si>
+    <t>cafe extra forte</t>
+  </si>
+  <si>
+    <t>cafe nespresso</t>
+  </si>
+  <si>
+    <t>cafe 3 coracoes</t>
+  </si>
+  <si>
+    <t>cafe pilao</t>
+  </si>
+  <si>
+    <t>nespresso</t>
+  </si>
+  <si>
+    <t>arroz camil</t>
+  </si>
+  <si>
+    <t>arroz tio joao</t>
+  </si>
+  <si>
+    <t>cafe</t>
+  </si>
+  <si>
     <t>Tixan maciez</t>
   </si>
   <si>
-    <t>cafe</t>
-  </si>
-  <si>
     <t>contra file</t>
   </si>
   <si>
@@ -142,12 +190,6 @@
     <t>Capsula nespresso</t>
   </si>
   <si>
-    <t>arroz camil</t>
-  </si>
-  <si>
-    <t>arroz tio joao</t>
-  </si>
-  <si>
     <t>chocolate</t>
   </si>
   <si>
@@ -161,9 +203,6 @@
   </si>
   <si>
     <t>chamine3</t>
-  </si>
-  <si>
-    <t>cafe 3 coracoes</t>
   </si>
   <si>
     <t>Spreadsheet_ID</t>
@@ -477,7 +516,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1026"/>
+  <dimension ref="A1:A1045"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -499,7 +538,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -514,198 +553,274 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="34" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="35" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="38" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="39" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="40" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="41" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="42" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="43" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1667,6 +1782,25 @@
     <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -1690,7 +1824,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2708,7 +2842,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1027"/>
+  <dimension ref="A1:A1042"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -2720,224 +2854,284 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>43</v>
+      <c r="A29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3903,6 +4097,21 @@
     <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -3926,37 +4135,37 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Workbook.xlsx
+++ b/Workbook.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="address" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="name" state="visible" r:id="rId5"/>
@@ -14,11 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>Address</t>
   </si>
   <si>
+    <t>Rua Jandiatuba, 74 - Buritis, Belo Horizonte - State of Minas Gerais, Brazil, 30493-135</t>
+  </si>
+  <si>
     <t>Rua Ouro Preto, 1188 - Santo Agostinho, Belo Horizonte - State of Minas Gerais, Brazil, 30170-041</t>
   </si>
   <si>
@@ -139,9 +145,18 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Luis</t>
+  </si>
+  <si>
     <t>Query</t>
   </si>
   <si>
+    <t>Detergente</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
     <t>cafe forte</t>
   </si>
   <si>
@@ -206,6 +221,9 @@
   </si>
   <si>
     <t>Spreadsheet_ID</t>
+  </si>
+  <si>
+    <t>1lzEl5fIgC4PfC2PuA7zJBUfs8TrSY6wGHwG3ktUQRzs</t>
   </si>
   <si>
     <t>11MMXmd2PNtDk8BfPe5BALj-IRY8gcoPWome4F-CF_7s</t>
@@ -215,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -230,11 +248,19 @@
     </font>
     <font>
       <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -284,14 +310,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -318,7 +347,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -508,6 +537,8 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -516,14 +547,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1045"/>
+  <dimension ref="A1:A1049"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.43"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.44140625" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="78.57" customWidth="1"/>
-    <col min="2" max="6" width="8.71" customWidth="1"/>
+    <col min="1" max="1" width="78.5546875" customWidth="1"/>
+    <col min="2" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -538,37 +571,37 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -578,92 +611,92 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -673,158 +706,174 @@
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1801,6 +1850,10 @@
     <row r="1043" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1044" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1045" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -1814,41 +1867,42 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.43"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.44140625" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="6" width="8.71" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="str">
-        <f>query!A1</f>
-        <v>Query</v>
+      <c r="A2" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>query!A3</f>
-        <v>arroz tio joao</v>
+        <v>cafe forte</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>query!A4</f>
-        <v>chocolate</v>
+        <v>cafe extra forte</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>query!A5</f>
-        <v>chocolate</v>
+        <v>cafe extra forte</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2842,34 +2896,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1042"/>
+  <dimension ref="A1:A1049"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.43"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.44140625" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.86" customWidth="1"/>
-    <col min="2" max="6" width="8.71" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2884,7 +2940,7 @@
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2894,12 +2950,12 @@
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2909,7 +2965,7 @@
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2929,12 +2985,12 @@
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2944,7 +3000,7 @@
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2954,97 +3010,97 @@
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3059,86 +3115,114 @@
     </row>
     <row r="42" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4112,6 +4196,13 @@
     <row r="1040" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -4125,47 +4216,49 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.43"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.44140625" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="6" width="8.71" customWidth="1"/>
+    <col min="2" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>64</v>
+      <c r="A2" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>64</v>
+      <c r="A3" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>64</v>
+      <c r="A4" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>64</v>
+      <c r="A5" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>64</v>
+      <c r="A6" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>64</v>
+      <c r="A7" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Workbook.xlsx
+++ b/Workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="address" state="visible" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>Address</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>sabao em po</t>
+  </si>
+  <si>
+    <t>detergente</t>
+  </si>
+  <si>
+    <t>Sabao em po</t>
   </si>
   <si>
     <t>Detergente</t>
@@ -547,7 +556,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1049"/>
+  <dimension ref="A1:A1051"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -586,132 +595,132 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -721,161 +730,169 @@
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="53" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="54" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="55" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="56" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="62" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1854,6 +1871,8 @@
     <row r="1047" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1048" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -1868,7 +1887,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.44140625" customHeight="1"/>
@@ -1888,22 +1907,13 @@
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
-        <f>query!A3</f>
-        <v>cafe forte</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
-        <f>query!A4</f>
-        <v>cafe extra forte</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
-        <f>query!A5</f>
-        <v>cafe extra forte</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2896,7 +2906,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1049"/>
+  <dimension ref="A1:A1053"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -2930,27 +2940,27 @@
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2970,37 +2980,37 @@
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3015,7 +3025,7 @@
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3030,203 +3040,219 @@
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>53</v>
+      <c r="A51" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A52" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="53" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="54" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="58" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4203,6 +4229,10 @@
     <row r="1047" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1048" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -4228,37 +4258,37 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Workbook.xlsx
+++ b/Workbook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>Address</t>
   </si>
@@ -172,6 +172,9 @@
     <t>Query</t>
   </si>
   <si>
+    <t>cafe 3 coracoes</t>
+  </si>
+  <si>
     <t>mel</t>
   </si>
   <si>
@@ -233,9 +236,6 @@
   </si>
   <si>
     <t>cafe nespresso</t>
-  </si>
-  <si>
-    <t>cafe 3 coracoes</t>
   </si>
   <si>
     <t>cafe pilao</t>
@@ -598,7 +598,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1014"/>
+  <dimension ref="A1:A1015"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -620,12 +620,12 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -650,17 +650,17 @@
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -670,22 +670,22 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -730,12 +730,12 @@
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -755,77 +755,77 @@
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -835,67 +835,67 @@
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -905,57 +905,57 @@
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="70" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -964,18 +964,18 @@
       </c>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>43</v>
+      <c r="A72" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -983,48 +983,52 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="78" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1222,7 @@
     <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1950,6 +1954,7 @@
     <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -2996,7 +3001,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1018"/>
+  <dimension ref="A1:A1019"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -3028,7 +3033,7 @@
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3038,7 +3043,7 @@
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3063,12 +3068,12 @@
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3098,27 +3103,27 @@
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>64</v>
+      <c r="A20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3133,7 +3138,7 @@
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3153,22 +3158,22 @@
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3188,7 +3193,7 @@
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3198,7 +3203,7 @@
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3208,22 +3213,22 @@
     </row>
     <row r="41" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3233,12 +3238,12 @@
     </row>
     <row r="46" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3248,12 +3253,12 @@
     </row>
     <row r="49" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3263,12 +3268,12 @@
     </row>
     <row r="52" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3288,7 +3293,7 @@
     </row>
     <row r="57" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3313,7 +3318,7 @@
     </row>
     <row r="62" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3343,7 +3348,7 @@
     </row>
     <row r="68" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3358,17 +3363,17 @@
     </row>
     <row r="71" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3378,17 +3383,17 @@
     </row>
     <row r="75" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="77" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="78" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3396,9 +3401,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>85</v>
+    <row r="79" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="80" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3406,58 +3411,62 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>78</v>
+    <row r="81" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3651,7 +3660,7 @@
     <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4380,6 +4389,7 @@
     <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Workbook.xlsx
+++ b/Workbook.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
   <si>
     <t>Address</t>
   </si>
@@ -151,6 +151,15 @@
     <t>Query</t>
   </si>
   <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>cafe 3 coracoes</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
     <t>sabao em po</t>
   </si>
   <si>
@@ -163,9 +172,6 @@
     <t>Detergente</t>
   </si>
   <si>
-    <t>Arroz</t>
-  </si>
-  <si>
     <t>cafe forte</t>
   </si>
   <si>
@@ -173,9 +179,6 @@
   </si>
   <si>
     <t>cafe nespresso</t>
-  </si>
-  <si>
-    <t>cafe 3 coracoes</t>
   </si>
   <si>
     <t>cafe pilao</t>
@@ -556,7 +559,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1051"/>
+  <dimension ref="A1:A1053"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -605,132 +608,132 @@
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -740,161 +743,169 @@
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="55" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="56" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="57" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="58" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="64" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1873,6 +1884,8 @@
     <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1050" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -2906,7 +2919,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1053"/>
+  <dimension ref="A1:A1056"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -2935,17 +2948,17 @@
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2955,32 +2968,32 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2990,7 +3003,7 @@
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3000,7 +3013,7 @@
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3010,62 +3023,62 @@
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3080,12 +3093,12 @@
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3105,62 +3118,62 @@
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3170,92 +3183,104 @@
     </row>
     <row r="51" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="58" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="59" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4233,6 +4258,9 @@
     <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1052" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1053" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -4258,37 +4286,37 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Workbook.xlsx
+++ b/Workbook.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
   <si>
     <t>Address</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>sabonete</t>
+  </si>
+  <si>
+    <t>Coca cola</t>
   </si>
   <si>
     <t>Bacon</t>
@@ -559,7 +565,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1053"/>
+  <dimension ref="A1:A1056"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -618,42 +624,42 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -663,7 +669,7 @@
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -673,242 +679,254 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="58" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="59" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="60" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="61" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1886,6 +1904,9 @@
     <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1052" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1053" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -2919,7 +2940,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1056"/>
+  <dimension ref="A1:A1061"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -2943,47 +2964,47 @@
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2993,22 +3014,22 @@
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3023,32 +3044,32 @@
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3058,47 +3079,47 @@
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3108,67 +3129,67 @@
     </row>
     <row r="36" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3188,12 +3209,12 @@
     </row>
     <row r="52" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3208,84 +3229,104 @@
     </row>
     <row r="56" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>57</v>
+      <c r="A58" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="59" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="60" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+    <row r="61" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="66" ht="19.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="69" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4261,6 +4302,11 @@
     <row r="1054" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1055" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1056" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1057" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1058" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1059" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1061" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -4286,37 +4332,37 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
